--- a/data/speed_report.xlsx
+++ b/data/speed_report.xlsx
@@ -474,14 +474,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:34:56</t>
+          <t>23:10:48</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>30.01</v>
+        <v>32.57</v>
       </c>
       <c r="E2" t="n">
-        <v>30.01</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="3">
@@ -497,14 +497,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:36:26</t>
+          <t>23:11:18</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>32.01</v>
+        <v>24.81</v>
       </c>
       <c r="E3" t="n">
-        <v>32.01</v>
+        <v>24.81</v>
       </c>
     </row>
   </sheetData>
